--- a/Social Follower Count.xlsx
+++ b/Social Follower Count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Get Twtiter and Discord Followers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243448D2-46EF-4458-B29A-444FF1B3A936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16813D10-6C92-4DA9-9F8D-00173A878E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="612" windowWidth="23544" windowHeight="14724" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="612" windowWidth="23544" windowHeight="14724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="391">
   <si>
     <t>Token</t>
   </si>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13424,10 +13424,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15955,6 +15955,231 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56">
+        <f>Volume!B56</f>
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f>X!L56</f>
+        <v>176300</v>
+      </c>
+      <c r="D56">
+        <f>X!B56</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>X!C56</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>Discord!L56</f>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f>Discord!B56</f>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f>Discord!C57</f>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f>Telegram!L56</f>
+        <v>6386925</v>
+      </c>
+      <c r="J56">
+        <f>Telegram!B56</f>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f>Telegram!C57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57">
+        <f>Volume!B57</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>X!L57</f>
+        <v>97300</v>
+      </c>
+      <c r="D57">
+        <f>X!B57</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>X!C57</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>Discord!L57</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f>Discord!B57</f>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f>Discord!C58</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f>Telegram!L57</f>
+        <v>105511</v>
+      </c>
+      <c r="J57">
+        <f>Telegram!B57</f>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f>Telegram!C58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58">
+        <f>Volume!B58</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>X!L58</f>
+        <v>98400</v>
+      </c>
+      <c r="D58">
+        <f>X!B58</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>X!C58</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>Discord!L58</f>
+        <v>5668</v>
+      </c>
+      <c r="G58">
+        <f>Discord!B58</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>Discord!C59</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>Telegram!L58</f>
+        <v>852</v>
+      </c>
+      <c r="J58">
+        <f>Telegram!B58</f>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f>Telegram!C59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59">
+        <f>Volume!B59</f>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f>X!L59</f>
+        <v>54900</v>
+      </c>
+      <c r="D59">
+        <f>X!B59</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>X!C59</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>Discord!L59</f>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f>Discord!B59</f>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f>Discord!C60</f>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f>Telegram!L59</f>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f>Telegram!B59</f>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f>Telegram!C60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60">
+        <f>Volume!B60</f>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f>X!L60</f>
+        <v>364800</v>
+      </c>
+      <c r="D60">
+        <f>X!B60</f>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f>X!C60</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>Discord!L60</f>
+        <v>148639</v>
+      </c>
+      <c r="G60">
+        <f>Discord!B60</f>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f>Discord!C61</f>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f>Telegram!L60</f>
+        <v>119421</v>
+      </c>
+      <c r="J60">
+        <f>Telegram!B60</f>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f>Telegram!C61</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15963,10 +16188,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16017,1682 +16242,2210 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
+      <c r="A2" t="str">
+        <f>X!A2</f>
+        <v>TKX</v>
       </c>
       <c r="B2">
+        <f>Volume!B2</f>
         <v>-4.72</v>
       </c>
       <c r="C2">
+        <f>X!L2</f>
         <v>31700</v>
       </c>
       <c r="D2">
+        <f>X!B2</f>
         <v>0</v>
       </c>
       <c r="E2">
+        <f>X!C2</f>
         <v>-0.31</v>
       </c>
       <c r="F2">
+        <f>Discord!L2</f>
         <v>0</v>
       </c>
       <c r="G2" t="e">
+        <f>Discord!B2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H2">
+        <f>Discord!C3</f>
         <v>0.34</v>
       </c>
       <c r="I2">
+        <f>Telegram!L2</f>
         <v>393161</v>
       </c>
       <c r="J2">
+        <f>Telegram!B2</f>
         <v>3.14</v>
       </c>
       <c r="K2">
+        <f>Telegram!C3</f>
         <v>0.09</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
+      <c r="A3" t="str">
+        <f>X!A3</f>
+        <v>ENA</v>
       </c>
       <c r="B3">
+        <f>Volume!B3</f>
         <v>2.93</v>
       </c>
       <c r="C3">
+        <f>X!L3</f>
         <v>205800</v>
       </c>
       <c r="D3">
+        <f>X!B3</f>
         <v>-0.05</v>
       </c>
       <c r="E3">
+        <f>X!C3</f>
         <v>0.19</v>
       </c>
       <c r="F3">
+        <f>Discord!L3</f>
         <v>35413</v>
       </c>
       <c r="G3" t="e">
+        <f>Discord!B3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3">
+        <f>Discord!C4</f>
         <v>0.35</v>
       </c>
       <c r="I3">
+        <f>Telegram!L3</f>
         <v>15086</v>
       </c>
       <c r="J3">
+        <f>Telegram!B3</f>
         <v>-0.11</v>
       </c>
       <c r="K3">
+        <f>Telegram!C4</f>
         <v>-0.28000000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
+      <c r="A4" t="str">
+        <f>X!A4</f>
+        <v>ALGO</v>
       </c>
       <c r="B4" t="e">
+        <f>Volume!B4</f>
         <v>#VALUE!</v>
       </c>
       <c r="C4">
+        <f>X!L4</f>
         <v>348100</v>
       </c>
       <c r="D4">
+        <f>X!B4</f>
         <v>0.06</v>
       </c>
       <c r="E4">
+        <f>X!C4</f>
         <v>0.12</v>
       </c>
       <c r="F4">
+        <f>Discord!L4</f>
         <v>21789</v>
       </c>
       <c r="G4" t="e">
+        <f>Discord!B4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H4">
+        <f>Discord!C5</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="I4">
+        <f>Telegram!L4</f>
         <v>17438</v>
       </c>
       <c r="J4" t="e">
+        <f>Telegram!B4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K4">
+        <f>Telegram!C5</f>
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
+      <c r="A5" t="str">
+        <f>X!A5</f>
+        <v>KAS</v>
       </c>
       <c r="B5" t="e">
+        <f>Volume!B5</f>
         <v>#VALUE!</v>
       </c>
       <c r="C5">
+        <f>X!L5</f>
         <v>240200</v>
       </c>
       <c r="D5">
+        <f>X!B5</f>
         <v>0.17</v>
       </c>
       <c r="E5">
+        <f>X!C5</f>
         <v>0.76</v>
       </c>
       <c r="F5">
+        <f>Discord!L5</f>
         <v>54638</v>
       </c>
       <c r="G5">
+        <f>Discord!B5</f>
         <v>0.05</v>
       </c>
       <c r="H5">
+        <f>Discord!C6</f>
         <v>-0.09</v>
       </c>
       <c r="I5">
+        <f>Telegram!L5</f>
         <v>44632</v>
       </c>
       <c r="J5">
+        <f>Telegram!B5</f>
         <v>0.11</v>
       </c>
       <c r="K5">
+        <f>Telegram!C6</f>
         <v>-0.37</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
+      <c r="A6" t="str">
+        <f>X!A6</f>
+        <v>OKB</v>
       </c>
       <c r="B6">
+        <f>Volume!B6</f>
         <v>5.83</v>
       </c>
       <c r="C6">
+        <f>X!L6</f>
         <v>5700000</v>
       </c>
       <c r="D6">
+        <f>X!B6</f>
         <v>1.79</v>
       </c>
       <c r="E6">
+        <f>X!C6</f>
         <v>0</v>
       </c>
       <c r="F6">
+        <f>Discord!L6</f>
         <v>163582</v>
       </c>
       <c r="G6">
+        <f>Discord!B6</f>
         <v>-0.02</v>
       </c>
       <c r="H6" t="e">
+        <f>Discord!C7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I6">
+        <f>Telegram!L6</f>
         <v>191363</v>
       </c>
       <c r="J6">
+        <f>Telegram!B6</f>
         <v>-0.06</v>
       </c>
       <c r="K6">
+        <f>Telegram!C7</f>
         <v>-0.41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
+      <c r="A7" t="str">
+        <f>X!A7</f>
+        <v>ATOM</v>
       </c>
       <c r="B7">
+        <f>Volume!B7</f>
         <v>-1.2</v>
       </c>
       <c r="C7">
+        <f>X!L7</f>
         <v>564000</v>
       </c>
       <c r="D7">
+        <f>X!B7</f>
         <v>0.04</v>
       </c>
       <c r="E7" t="e">
+        <f>X!C7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F7">
+        <f>Discord!L7</f>
         <v>0</v>
       </c>
       <c r="G7" t="e">
+        <f>Discord!B7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H7">
+        <f>Discord!C8</f>
         <v>-0.05</v>
       </c>
       <c r="I7">
+        <f>Telegram!L7</f>
         <v>15566</v>
       </c>
       <c r="J7">
+        <f>Telegram!B7</f>
         <v>-0.06</v>
       </c>
       <c r="K7" t="e">
+        <f>Telegram!C8</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
+      <c r="A8" t="str">
+        <f>X!A8</f>
+        <v>OP</v>
       </c>
       <c r="B8">
+        <f>Volume!B8</f>
         <v>2.74</v>
       </c>
       <c r="C8">
+        <f>X!L8</f>
         <v>723100</v>
       </c>
       <c r="D8">
+        <f>X!B8</f>
         <v>0</v>
       </c>
       <c r="E8">
+        <f>X!C8</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="F8">
+        <f>Discord!L8</f>
         <v>161939</v>
       </c>
       <c r="G8" t="e">
+        <f>Discord!B8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H8">
+        <f>Discord!C9</f>
         <v>1.5</v>
       </c>
       <c r="I8">
+        <f>Telegram!L8</f>
         <v>0</v>
       </c>
       <c r="J8" t="e">
+        <f>Telegram!B8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K8">
+        <f>Telegram!C9</f>
         <v>1.21</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>39</v>
+      <c r="A9" t="str">
+        <f>X!A9</f>
+        <v>S</v>
       </c>
       <c r="B9">
+        <f>Volume!B9</f>
         <v>-8.7200000000000006</v>
       </c>
       <c r="C9">
+        <f>X!L9</f>
         <v>794500</v>
       </c>
       <c r="D9">
+        <f>X!B9</f>
         <v>0.06</v>
       </c>
       <c r="E9">
+        <f>X!C9</f>
         <v>0.34</v>
       </c>
       <c r="F9">
+        <f>Discord!L9</f>
         <v>38655</v>
       </c>
       <c r="G9">
+        <f>Discord!B9</f>
         <v>0.71</v>
       </c>
       <c r="H9">
+        <f>Discord!C10</f>
         <v>0.25</v>
       </c>
       <c r="I9">
+        <f>Telegram!L9</f>
         <v>31138</v>
       </c>
       <c r="J9">
+        <f>Telegram!B9</f>
         <v>0.39</v>
       </c>
       <c r="K9">
+        <f>Telegram!C10</f>
         <v>-0.25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
+      <c r="A10" t="str">
+        <f>X!A10</f>
+        <v>MOVE</v>
       </c>
       <c r="B10">
+        <f>Volume!B10</f>
         <v>-0.35</v>
       </c>
       <c r="C10">
+        <f>X!L10</f>
         <v>193500</v>
       </c>
       <c r="D10">
+        <f>X!B10</f>
         <v>0.26</v>
       </c>
       <c r="E10">
+        <f>X!C10</f>
         <v>0.42</v>
       </c>
       <c r="F10">
+        <f>Discord!L10</f>
         <v>837986</v>
       </c>
       <c r="G10">
+        <f>Discord!B10</f>
         <v>0.08</v>
       </c>
       <c r="H10" t="e">
+        <f>Discord!C11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I10">
+        <f>Telegram!L10</f>
         <v>44748</v>
       </c>
       <c r="J10">
+        <f>Telegram!B10</f>
         <v>-0.04</v>
       </c>
       <c r="K10" t="e">
+        <f>Telegram!C11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
+      <c r="A11" t="str">
+        <f>X!A11</f>
+        <v>AI16Z</v>
       </c>
       <c r="B11">
+        <f>Volume!B11</f>
         <v>1.1399999999999999</v>
       </c>
       <c r="C11">
+        <f>X!L11</f>
         <v>32299</v>
       </c>
       <c r="D11">
+        <f>X!B11</f>
         <v>0.93</v>
       </c>
       <c r="E11">
+        <f>X!C11</f>
         <v>5.55</v>
       </c>
       <c r="F11">
+        <f>Discord!L11</f>
         <v>0</v>
       </c>
       <c r="G11" t="e">
+        <f>Discord!B11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H11">
+        <f>Discord!C12</f>
         <v>0.73</v>
       </c>
       <c r="I11">
+        <f>Telegram!L11</f>
         <v>0</v>
       </c>
       <c r="J11" t="e">
+        <f>Telegram!B11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K11" t="e">
+        <f>Telegram!C12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>45</v>
+      <c r="A12" t="str">
+        <f>X!A12</f>
+        <v>GT</v>
       </c>
       <c r="B12">
+        <f>Volume!B12</f>
         <v>1.69</v>
       </c>
       <c r="C12">
+        <f>X!L12</f>
         <v>49000</v>
       </c>
       <c r="D12">
+        <f>X!B12</f>
         <v>-0.2</v>
       </c>
       <c r="E12">
+        <f>X!C12</f>
         <v>-0.2</v>
       </c>
       <c r="F12">
+        <f>Discord!L12</f>
         <v>3176</v>
       </c>
       <c r="G12">
+        <f>Discord!B12</f>
         <v>0.22</v>
       </c>
       <c r="H12">
+        <f>Discord!C13</f>
         <v>0.18</v>
       </c>
       <c r="I12">
+        <f>Telegram!L12</f>
         <v>0</v>
       </c>
       <c r="J12" t="e">
+        <f>Telegram!B12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K12">
+        <f>Telegram!C13</f>
         <v>-0.4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>47</v>
+      <c r="A13" t="str">
+        <f>X!A13</f>
+        <v>ONDO</v>
       </c>
       <c r="B13">
+        <f>Volume!B13</f>
         <v>5.35</v>
       </c>
       <c r="C13">
+        <f>X!L13</f>
         <v>243100</v>
       </c>
       <c r="D13">
+        <f>X!B13</f>
         <v>5.01</v>
       </c>
       <c r="E13">
+        <f>X!C13</f>
         <v>12.96</v>
       </c>
       <c r="F13">
+        <f>Discord!L13</f>
         <v>46581</v>
       </c>
       <c r="G13" t="e">
+        <f>Discord!B13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" t="e">
+        <f>Discord!C14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I13">
+        <f>Telegram!L13</f>
         <v>73026</v>
       </c>
       <c r="J13">
+        <f>Telegram!B13</f>
         <v>-0.05</v>
       </c>
       <c r="K13">
+        <f>Telegram!C14</f>
         <v>-0.31</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>49</v>
+      <c r="A14" t="str">
+        <f>X!A14</f>
+        <v>QNT</v>
       </c>
       <c r="B14" t="e">
+        <f>Volume!B14</f>
         <v>#VALUE!</v>
       </c>
       <c r="C14">
+        <f>X!L14</f>
         <v>153600</v>
       </c>
       <c r="D14">
+        <f>X!B14</f>
         <v>0</v>
       </c>
       <c r="E14">
+        <f>X!C14</f>
         <v>0</v>
       </c>
       <c r="F14">
+        <f>Discord!L14</f>
         <v>0</v>
       </c>
       <c r="G14" t="e">
+        <f>Discord!B14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H14">
+        <f>Discord!C15</f>
         <v>-0.09</v>
       </c>
       <c r="I14">
+        <f>Telegram!L14</f>
         <v>3487</v>
       </c>
       <c r="J14">
+        <f>Telegram!B14</f>
         <v>-0.11</v>
       </c>
       <c r="K14">
+        <f>Telegram!C15</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>51</v>
+      <c r="A15" t="str">
+        <f>X!A15</f>
+        <v>SAND</v>
       </c>
       <c r="B15">
+        <f>Volume!B15</f>
         <v>1.1299999999999999</v>
       </c>
       <c r="C15">
+        <f>X!L15</f>
         <v>1100000</v>
       </c>
       <c r="D15">
+        <f>X!B15</f>
         <v>0</v>
       </c>
       <c r="E15">
+        <f>X!C15</f>
         <v>0</v>
       </c>
       <c r="F15">
+        <f>Discord!L15</f>
         <v>275574</v>
       </c>
       <c r="G15" t="e">
+        <f>Discord!B15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" t="e">
+        <f>Discord!C16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I15">
+        <f>Telegram!L15</f>
         <v>45793</v>
       </c>
       <c r="J15">
+        <f>Telegram!B15</f>
         <v>0</v>
       </c>
       <c r="K15">
+        <f>Telegram!C16</f>
         <v>0.09</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>53</v>
+      <c r="A16" t="str">
+        <f>X!A16</f>
+        <v>RUNE</v>
       </c>
       <c r="B16">
+        <f>Volume!B16</f>
         <v>5.24</v>
       </c>
       <c r="C16">
+        <f>X!L16</f>
         <v>263100</v>
       </c>
       <c r="D16">
+        <f>X!B16</f>
         <v>0.04</v>
       </c>
       <c r="E16">
+        <f>X!C16</f>
         <v>0.15</v>
       </c>
       <c r="F16">
+        <f>Discord!L16</f>
         <v>0</v>
       </c>
       <c r="G16" t="e">
+        <f>Discord!B16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" t="e">
+        <f>Discord!C17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I16">
+        <f>Telegram!L16</f>
         <v>13445</v>
       </c>
       <c r="J16">
+        <f>Telegram!B16</f>
         <v>0.1</v>
       </c>
       <c r="K16">
+        <f>Telegram!C17</f>
         <v>-1.54</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>55</v>
+      <c r="A17" t="str">
+        <f>X!A17</f>
+        <v>RAY</v>
       </c>
       <c r="B17">
+        <f>Volume!B17</f>
         <v>0.92</v>
       </c>
       <c r="C17">
+        <f>X!L17</f>
         <v>366800</v>
       </c>
       <c r="D17">
+        <f>X!B17</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="E17">
+        <f>X!C17</f>
         <v>0.41</v>
       </c>
       <c r="F17">
+        <f>Discord!L17</f>
         <v>0</v>
       </c>
       <c r="G17" t="e">
+        <f>Discord!B17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" t="e">
+        <f>Discord!C18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I17">
+        <f>Telegram!L17</f>
         <v>32749</v>
       </c>
       <c r="J17">
+        <f>Telegram!B17</f>
         <v>0.06</v>
       </c>
       <c r="K17">
+        <f>Telegram!C18</f>
         <v>-0.59</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>57</v>
+      <c r="A18" t="str">
+        <f>X!A18</f>
+        <v>PYTH</v>
       </c>
       <c r="B18">
+        <f>Volume!B18</f>
         <v>1.07</v>
       </c>
       <c r="C18">
+        <f>X!L18</f>
         <v>262600</v>
       </c>
       <c r="D18">
+        <f>X!B18</f>
         <v>-0.11</v>
       </c>
       <c r="E18">
+        <f>X!C18</f>
         <v>0.15</v>
       </c>
       <c r="F18">
+        <f>Discord!L18</f>
         <v>0</v>
       </c>
       <c r="G18" t="e">
+        <f>Discord!B18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" t="e">
+        <f>Discord!C19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I18">
+        <f>Telegram!L18</f>
         <v>12443</v>
       </c>
       <c r="J18">
+        <f>Telegram!B18</f>
         <v>-0.06</v>
       </c>
       <c r="K18" t="e">
+        <f>Telegram!C19</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>59</v>
+      <c r="A19" t="str">
+        <f>X!A19</f>
+        <v>JUP</v>
       </c>
       <c r="B19">
+        <f>Volume!B19</f>
         <v>2.4700000000000002</v>
       </c>
       <c r="C19">
+        <f>X!L19</f>
         <v>476300</v>
       </c>
       <c r="D19">
+        <f>X!B19</f>
         <v>0.23</v>
       </c>
       <c r="E19">
+        <f>X!C19</f>
         <v>0.89</v>
       </c>
       <c r="F19">
+        <f>Discord!L19</f>
         <v>0</v>
       </c>
       <c r="G19" t="e">
+        <f>Discord!B19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" t="e">
+        <f>Discord!C20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I19">
+        <f>Telegram!L19</f>
         <v>0</v>
       </c>
       <c r="J19" t="e">
+        <f>Telegram!B19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K19">
+        <f>Telegram!C20</f>
         <v>-0.6</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>61</v>
+      <c r="A20" t="str">
+        <f>X!A20</f>
+        <v>CRV</v>
       </c>
       <c r="B20">
+        <f>Volume!B20</f>
         <v>3.26</v>
       </c>
       <c r="C20">
+        <f>X!L20</f>
         <v>367600</v>
       </c>
       <c r="D20">
+        <f>X!B20</f>
         <v>0</v>
       </c>
       <c r="E20">
+        <f>X!C20</f>
         <v>0</v>
       </c>
       <c r="F20">
+        <f>Discord!L20</f>
         <v>0</v>
       </c>
       <c r="G20" t="e">
+        <f>Discord!B20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" t="e">
+        <f>Discord!C21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I20">
+        <f>Telegram!L20</f>
         <v>15331</v>
       </c>
       <c r="J20">
+        <f>Telegram!B20</f>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K20">
+        <f>Telegram!C21</f>
         <v>-0.83</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>63</v>
+      <c r="A21" t="str">
+        <f>X!A21</f>
+        <v>SNEK</v>
       </c>
       <c r="B21" t="e">
+        <f>Volume!B21</f>
         <v>#VALUE!</v>
       </c>
       <c r="C21">
+        <f>X!L21</f>
         <v>52300</v>
       </c>
       <c r="D21">
+        <f>X!B21</f>
         <v>0</v>
       </c>
       <c r="E21">
+        <f>X!C21</f>
         <v>0.38</v>
       </c>
       <c r="F21">
+        <f>Discord!L21</f>
         <v>0</v>
       </c>
       <c r="G21" t="e">
+        <f>Discord!B21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" t="e">
+        <f>Discord!C22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I21">
+        <f>Telegram!L21</f>
         <v>7204</v>
       </c>
       <c r="J21">
+        <f>Telegram!B21</f>
         <v>-0.24</v>
       </c>
       <c r="K21">
+        <f>Telegram!C22</f>
         <v>-0.45</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>65</v>
+      <c r="A22" t="str">
+        <f>X!A22</f>
+        <v>DASH</v>
       </c>
       <c r="B22">
+        <f>Volume!B22</f>
         <v>1.62</v>
       </c>
       <c r="C22">
+        <f>X!L22</f>
         <v>430800</v>
       </c>
       <c r="D22">
+        <f>X!B22</f>
         <v>0.02</v>
       </c>
       <c r="E22">
+        <f>X!C22</f>
         <v>0.02</v>
       </c>
       <c r="F22">
+        <f>Discord!L22</f>
         <v>0</v>
       </c>
       <c r="G22" t="e">
+        <f>Discord!B22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H22" t="e">
+        <f>Discord!C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I22">
+        <f>Telegram!L22</f>
         <v>9202</v>
       </c>
       <c r="J22">
+        <f>Telegram!B22</f>
         <v>-0.1</v>
       </c>
       <c r="K22">
+        <f>Telegram!C23</f>
         <v>1.53</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>67</v>
+      <c r="A23" t="str">
+        <f>X!A23</f>
+        <v>GRIFFAIN</v>
       </c>
       <c r="B23">
+        <f>Volume!B23</f>
         <v>-1.04</v>
       </c>
       <c r="C23">
+        <f>X!L23</f>
         <v>102900</v>
       </c>
       <c r="D23">
+        <f>X!B23</f>
         <v>1.88</v>
       </c>
       <c r="E23">
+        <f>X!C23</f>
         <v>9.4700000000000006</v>
       </c>
       <c r="F23">
+        <f>Discord!L23</f>
         <v>0</v>
       </c>
       <c r="G23" t="e">
+        <f>Discord!B23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H23" t="e">
+        <f>Discord!C24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I23">
+        <f>Telegram!L23</f>
         <v>7363</v>
       </c>
       <c r="J23">
+        <f>Telegram!B23</f>
         <v>0.34</v>
       </c>
       <c r="K23">
+        <f>Telegram!C24</f>
         <v>-0.3</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>69</v>
+      <c r="A24" t="str">
+        <f>X!A24</f>
+        <v>HOT</v>
       </c>
       <c r="B24">
+        <f>Volume!B24</f>
         <v>6.67</v>
       </c>
       <c r="C24">
+        <f>X!L24</f>
         <v>107200</v>
       </c>
       <c r="D24">
+        <f>X!B24</f>
         <v>0</v>
       </c>
       <c r="E24">
+        <f>X!C24</f>
         <v>0.09</v>
       </c>
       <c r="F24">
+        <f>Discord!L24</f>
         <v>0</v>
       </c>
       <c r="G24" t="e">
+        <f>Discord!B24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H24">
+        <f>Discord!C25</f>
         <v>-0.21</v>
       </c>
       <c r="I24">
+        <f>Telegram!L24</f>
         <v>6755</v>
       </c>
       <c r="J24">
+        <f>Telegram!B24</f>
         <v>0</v>
       </c>
       <c r="K24">
+        <f>Telegram!C25</f>
         <v>-0.51</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>71</v>
+      <c r="A25" t="str">
+        <f>X!A25</f>
+        <v>MATIC</v>
       </c>
       <c r="B25">
+        <f>Volume!B25</f>
         <v>1.83</v>
       </c>
       <c r="C25">
+        <f>X!L25</f>
         <v>2000000</v>
       </c>
       <c r="D25">
+        <f>X!B25</f>
         <v>0</v>
       </c>
       <c r="E25">
+        <f>X!C25</f>
         <v>0</v>
       </c>
       <c r="F25">
+        <f>Discord!L25</f>
         <v>169177</v>
       </c>
       <c r="G25">
+        <f>Discord!B25</f>
         <v>-0.05</v>
       </c>
       <c r="H25">
+        <f>Discord!C26</f>
         <v>-0.1</v>
       </c>
       <c r="I25">
+        <f>Telegram!L25</f>
         <v>57253</v>
       </c>
       <c r="J25">
+        <f>Telegram!B25</f>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K25">
+        <f>Telegram!C26</f>
         <v>-0.55000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>73</v>
+      <c r="A26" t="str">
+        <f>X!A26</f>
+        <v>HNT</v>
       </c>
       <c r="B26" t="e">
+        <f>Volume!B26</f>
         <v>#VALUE!</v>
       </c>
       <c r="C26">
+        <f>X!L26</f>
         <v>216500</v>
       </c>
       <c r="D26">
+        <f>X!B26</f>
         <v>0</v>
       </c>
       <c r="E26">
+        <f>X!C26</f>
         <v>0.05</v>
       </c>
       <c r="F26">
+        <f>Discord!L26</f>
         <v>154141</v>
       </c>
       <c r="G26">
+        <f>Discord!B26</f>
         <v>-0.01</v>
       </c>
       <c r="H26">
+        <f>Discord!C27</f>
         <v>10.33</v>
       </c>
       <c r="I26">
+        <f>Telegram!L26</f>
         <v>22142</v>
       </c>
       <c r="J26">
+        <f>Telegram!B26</f>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K26" t="e">
+        <f>Telegram!C27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>75</v>
+      <c r="A27" t="str">
+        <f>X!A27</f>
+        <v>AERO</v>
       </c>
       <c r="B27">
+        <f>Volume!B27</f>
         <v>1.29</v>
       </c>
       <c r="C27">
+        <f>X!L27</f>
         <v>93300</v>
       </c>
       <c r="D27">
+        <f>X!B27</f>
         <v>0</v>
       </c>
       <c r="E27">
+        <f>X!C27</f>
         <v>1.74</v>
       </c>
       <c r="F27">
+        <f>Discord!L27</f>
         <v>18630</v>
       </c>
       <c r="G27">
+        <f>Discord!B27</f>
         <v>0.19</v>
       </c>
       <c r="H27">
+        <f>Discord!C28</f>
         <v>-0.13</v>
       </c>
       <c r="I27">
+        <f>Telegram!L27</f>
         <v>0</v>
       </c>
       <c r="J27" t="e">
+        <f>Telegram!B27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K27" t="e">
+        <f>Telegram!C28</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>77</v>
+      <c r="A28" t="str">
+        <f>X!A28</f>
+        <v>ALT</v>
       </c>
       <c r="B28">
+        <f>Volume!B28</f>
         <v>2.6</v>
       </c>
       <c r="C28">
+        <f>X!L28</f>
         <v>670000</v>
       </c>
       <c r="D28">
+        <f>X!B28</f>
         <v>0.15</v>
       </c>
       <c r="E28">
+        <f>X!C28</f>
         <v>0.21</v>
       </c>
       <c r="F28">
+        <f>Discord!L28</f>
         <v>580432</v>
       </c>
       <c r="G28">
+        <f>Discord!B28</f>
         <v>-0.02</v>
       </c>
       <c r="H28">
+        <f>Discord!C29</f>
         <v>0.84</v>
       </c>
       <c r="I28">
+        <f>Telegram!L28</f>
         <v>0</v>
       </c>
       <c r="J28" t="e">
+        <f>Telegram!B28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K28">
+        <f>Telegram!C29</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>79</v>
+      <c r="A29" t="str">
+        <f>X!A29</f>
+        <v>PHALA</v>
       </c>
       <c r="B29">
+        <f>Volume!B29</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="C29">
+        <f>X!L29</f>
         <v>136100</v>
       </c>
       <c r="D29">
+        <f>X!B29</f>
         <v>0.15</v>
       </c>
       <c r="E29">
+        <f>X!C29</f>
         <v>0.67</v>
       </c>
       <c r="F29">
+        <f>Discord!L29</f>
         <v>10618</v>
       </c>
       <c r="G29">
+        <f>Discord!B29</f>
         <v>0.03</v>
       </c>
       <c r="H29" t="e">
+        <f>Discord!C30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I29">
+        <f>Telegram!L29</f>
         <v>11055</v>
       </c>
       <c r="J29">
+        <f>Telegram!B29</f>
         <v>0.05</v>
       </c>
       <c r="K29">
+        <f>Telegram!C30</f>
         <v>3.81</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>81</v>
+      <c r="A30" t="str">
+        <f>X!A30</f>
+        <v>VIRTUAL</v>
       </c>
       <c r="B30">
+        <f>Volume!B30</f>
         <v>1.88</v>
       </c>
       <c r="C30">
+        <f>X!L30</f>
         <v>175400</v>
       </c>
       <c r="D30">
+        <f>X!B30</f>
         <v>0.34</v>
       </c>
       <c r="E30">
+        <f>X!C30</f>
         <v>5.73</v>
       </c>
       <c r="F30">
+        <f>Discord!L30</f>
         <v>0</v>
       </c>
       <c r="G30" t="e">
+        <f>Discord!B30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H30">
+        <f>Discord!C31</f>
         <v>0.03</v>
       </c>
       <c r="I30">
+        <f>Telegram!L30</f>
         <v>24878</v>
       </c>
       <c r="J30">
+        <f>Telegram!B30</f>
         <v>0.88</v>
       </c>
       <c r="K30">
+        <f>Telegram!C31</f>
         <v>0.44</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>83</v>
+      <c r="A31" t="str">
+        <f>X!A31</f>
+        <v>VET</v>
       </c>
       <c r="B31" t="e">
+        <f>Volume!B31</f>
         <v>#VALUE!</v>
       </c>
       <c r="C31">
+        <f>X!L31</f>
         <v>621200</v>
       </c>
       <c r="D31">
+        <f>X!B31</f>
         <v>0</v>
       </c>
       <c r="E31">
+        <f>X!C31</f>
         <v>0.02</v>
       </c>
       <c r="F31">
+        <f>Discord!L31</f>
         <v>18094</v>
       </c>
       <c r="G31">
+        <f>Discord!B31</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H31">
+        <f>Discord!C32</f>
         <v>1.03</v>
       </c>
       <c r="I31">
+        <f>Telegram!L31</f>
         <v>15411</v>
       </c>
       <c r="J31">
+        <f>Telegram!B31</f>
         <v>0.1</v>
       </c>
       <c r="K31">
+        <f>Telegram!C32</f>
         <v>-0.47</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>85</v>
+      <c r="A32" t="str">
+        <f>X!A32</f>
+        <v>FET</v>
       </c>
       <c r="B32" t="e">
+        <f>Volume!B32</f>
         <v>#VALUE!</v>
       </c>
       <c r="C32">
+        <f>X!L32</f>
         <v>251200</v>
       </c>
       <c r="D32">
+        <f>X!B32</f>
         <v>0.04</v>
       </c>
       <c r="E32">
+        <f>X!C32</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="F32">
+        <f>Discord!L32</f>
         <v>4528</v>
       </c>
       <c r="G32">
+        <f>Discord!B32</f>
         <v>0.27</v>
       </c>
       <c r="H32">
+        <f>Discord!C33</f>
         <v>-0.14000000000000001</v>
       </c>
       <c r="I32">
+        <f>Telegram!L32</f>
         <v>15332</v>
       </c>
       <c r="J32">
+        <f>Telegram!B32</f>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K32">
+        <f>Telegram!C33</f>
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>87</v>
+      <c r="A33" t="str">
+        <f>X!A33</f>
+        <v>ARB</v>
       </c>
       <c r="B33" t="e">
+        <f>Volume!B33</f>
         <v>#VALUE!</v>
       </c>
       <c r="C33">
+        <f>X!L33</f>
         <v>1100000</v>
       </c>
       <c r="D33">
+        <f>X!B33</f>
         <v>0</v>
       </c>
       <c r="E33">
+        <f>X!C33</f>
         <v>0</v>
       </c>
       <c r="F33">
+        <f>Discord!L33</f>
         <v>330602</v>
       </c>
       <c r="G33">
+        <f>Discord!B33</f>
         <v>-0.01</v>
       </c>
       <c r="H33">
+        <f>Discord!C34</f>
         <v>-0.17</v>
       </c>
       <c r="I33">
+        <f>Telegram!L33</f>
         <v>13539</v>
       </c>
       <c r="J33">
+        <f>Telegram!B33</f>
         <v>-0.03</v>
       </c>
       <c r="K33">
+        <f>Telegram!C34</f>
         <v>-0.45</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>89</v>
+      <c r="A34" t="str">
+        <f>X!A34</f>
+        <v>INJ</v>
       </c>
       <c r="B34">
+        <f>Volume!B34</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="C34">
+        <f>X!L34</f>
         <v>585500</v>
       </c>
       <c r="D34">
+        <f>X!B34</f>
         <v>1.04</v>
       </c>
       <c r="E34">
+        <f>X!C34</f>
         <v>0.64</v>
       </c>
       <c r="F34">
+        <f>Discord!L34</f>
         <v>209624</v>
       </c>
       <c r="G34">
+        <f>Discord!B34</f>
         <v>-0.06</v>
       </c>
       <c r="H34" t="e">
+        <f>Discord!C35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I34">
+        <f>Telegram!L34</f>
         <v>25945</v>
       </c>
       <c r="J34">
+        <f>Telegram!B34</f>
         <v>-0.08</v>
       </c>
       <c r="K34" t="e">
+        <f>Telegram!C35</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>91</v>
+      <c r="A35" t="str">
+        <f>X!A35</f>
+        <v>BONK</v>
       </c>
       <c r="B35">
+        <f>Volume!B35</f>
         <v>1.67</v>
       </c>
       <c r="C35">
+        <f>X!L35</f>
         <v>379600</v>
       </c>
       <c r="D35">
+        <f>X!B35</f>
         <v>-0.03</v>
       </c>
       <c r="E35">
+        <f>X!C35</f>
         <v>0.18</v>
       </c>
       <c r="F35">
+        <f>Discord!L35</f>
         <v>0</v>
       </c>
       <c r="G35" t="e">
+        <f>Discord!B35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H35">
+        <f>Discord!C36</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="I35">
+        <f>Telegram!L35</f>
         <v>0</v>
       </c>
       <c r="J35" t="e">
+        <f>Telegram!B35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K35">
+        <f>Telegram!C36</f>
         <v>0.06</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>93</v>
+      <c r="A36" t="str">
+        <f>X!A36</f>
+        <v>PENGU</v>
       </c>
       <c r="B36" t="e">
+        <f>Volume!B36</f>
         <v>#VALUE!</v>
       </c>
       <c r="C36">
+        <f>X!L36</f>
         <v>649500</v>
       </c>
       <c r="D36">
+        <f>X!B36</f>
         <v>0.68</v>
       </c>
       <c r="E36">
+        <f>X!C36</f>
         <v>2.19</v>
       </c>
       <c r="F36">
+        <f>Discord!L36</f>
         <v>158515</v>
       </c>
       <c r="G36">
+        <f>Discord!B36</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="H36">
+        <f>Discord!C37</f>
         <v>0.03</v>
       </c>
       <c r="I36">
+        <f>Telegram!L36</f>
         <v>62845</v>
       </c>
       <c r="J36">
+        <f>Telegram!B36</f>
         <v>0.08</v>
       </c>
       <c r="K36">
+        <f>Telegram!C37</f>
         <v>-0.3</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>95</v>
+      <c r="A37" t="str">
+        <f>X!A37</f>
+        <v>GRT</v>
       </c>
       <c r="B37" t="e">
+        <f>Volume!B37</f>
         <v>#VALUE!</v>
       </c>
       <c r="C37">
+        <f>X!L37</f>
         <v>338800</v>
       </c>
       <c r="D37">
+        <f>X!B37</f>
         <v>0.03</v>
       </c>
       <c r="E37">
+        <f>X!C37</f>
         <v>0.09</v>
       </c>
       <c r="F37">
+        <f>Discord!L37</f>
         <v>33770</v>
       </c>
       <c r="G37">
+        <f>Discord!B37</f>
         <v>0.03</v>
       </c>
       <c r="H37" t="e">
+        <f>Discord!C38</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I37">
+        <f>Telegram!L37</f>
         <v>21533</v>
       </c>
       <c r="J37">
+        <f>Telegram!B37</f>
         <v>-0.02</v>
       </c>
       <c r="K37">
+        <f>Telegram!C38</f>
         <v>-0.69</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>97</v>
+      <c r="A38" t="str">
+        <f>X!A38</f>
+        <v>FTN</v>
       </c>
       <c r="B38">
+        <f>Volume!B38</f>
         <v>0.26</v>
       </c>
       <c r="C38">
+        <f>X!L38</f>
         <v>194600</v>
       </c>
       <c r="D38">
+        <f>X!B38</f>
         <v>0.41</v>
       </c>
       <c r="E38">
+        <f>X!C38</f>
         <v>-0.36</v>
       </c>
       <c r="F38">
+        <f>Discord!L38</f>
         <v>0</v>
       </c>
       <c r="G38" t="e">
+        <f>Discord!B38</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H38" t="e">
+        <f>Discord!C39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I38">
+        <f>Telegram!L38</f>
         <v>105261</v>
       </c>
       <c r="J38">
+        <f>Telegram!B38</f>
         <v>-0.16</v>
       </c>
       <c r="K38">
+        <f>Telegram!C39</f>
         <v>-0.71</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>99</v>
+      <c r="A39" t="str">
+        <f>X!A39</f>
+        <v>NEXO</v>
       </c>
       <c r="B39">
+        <f>Volume!B39</f>
         <v>1.18</v>
       </c>
       <c r="C39">
+        <f>X!L39</f>
         <v>283300</v>
       </c>
       <c r="D39">
+        <f>X!B39</f>
         <v>-0.04</v>
       </c>
       <c r="E39">
+        <f>X!C39</f>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="F39">
+        <f>Discord!L39</f>
         <v>0</v>
       </c>
       <c r="G39" t="e">
+        <f>Discord!B39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H39">
+        <f>Discord!C40</f>
         <v>-0.12</v>
       </c>
       <c r="I39">
+        <f>Telegram!L39</f>
         <v>32477</v>
       </c>
       <c r="J39">
+        <f>Telegram!B39</f>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K39" t="e">
+        <f>Telegram!C40</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>101</v>
+      <c r="A40" t="str">
+        <f>X!A40</f>
+        <v>KCS</v>
       </c>
       <c r="B40" t="e">
+        <f>Volume!B40</f>
         <v>#VALUE!</v>
       </c>
       <c r="C40">
+        <f>X!L40</f>
         <v>3400000</v>
       </c>
       <c r="D40">
+        <f>X!B40</f>
         <v>0</v>
       </c>
       <c r="E40">
+        <f>X!C40</f>
         <v>0</v>
       </c>
       <c r="F40">
+        <f>Discord!L40</f>
         <v>107366</v>
       </c>
       <c r="G40">
+        <f>Discord!B40</f>
         <v>-0.03</v>
       </c>
       <c r="H40" t="e">
+        <f>Discord!C41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I40">
+        <f>Telegram!L40</f>
         <v>0</v>
       </c>
       <c r="J40" t="e">
+        <f>Telegram!B40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K40">
+        <f>Telegram!C41</f>
         <v>-0.85</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>103</v>
+      <c r="A41" t="str">
+        <f>X!A41</f>
+        <v>EOS</v>
       </c>
       <c r="B41" t="e">
+        <f>Volume!B41</f>
         <v>#VALUE!</v>
       </c>
       <c r="C41">
+        <f>X!L41</f>
         <v>99600</v>
       </c>
       <c r="D41">
+        <f>X!B41</f>
         <v>0.2</v>
       </c>
       <c r="E41">
+        <f>X!C41</f>
         <v>0.2</v>
       </c>
       <c r="F41">
+        <f>Discord!L41</f>
         <v>0</v>
       </c>
       <c r="G41" t="e">
+        <f>Discord!B41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H41">
+        <f>Discord!C42</f>
         <v>0.2</v>
       </c>
       <c r="I41">
+        <f>Telegram!L41</f>
         <v>16145</v>
       </c>
       <c r="J41">
+        <f>Telegram!B41</f>
         <v>-0.16</v>
       </c>
       <c r="K41">
+        <f>Telegram!C42</f>
         <v>-0.69</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>105</v>
+      <c r="A42" t="str">
+        <f>X!A42</f>
+        <v>SYN</v>
       </c>
       <c r="B42">
+        <f>Volume!B42</f>
         <v>1.86</v>
       </c>
       <c r="C42">
+        <f>X!L42</f>
         <v>72500</v>
       </c>
       <c r="D42">
+        <f>X!B42</f>
         <v>0</v>
       </c>
       <c r="E42">
+        <f>X!C42</f>
         <v>0</v>
       </c>
       <c r="F42">
+        <f>Discord!L42</f>
         <v>24997</v>
       </c>
       <c r="G42">
+        <f>Discord!B42</f>
         <v>0.02</v>
       </c>
       <c r="H42" t="e">
+        <f>Discord!C43</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I42">
+        <f>Telegram!L42</f>
         <v>5723</v>
       </c>
       <c r="J42">
+        <f>Telegram!B42</f>
         <v>-0.1</v>
       </c>
       <c r="K42">
+        <f>Telegram!C43</f>
         <v>-0.13</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>107</v>
+      <c r="A43" t="str">
+        <f>X!A43</f>
+        <v>SDEX</v>
       </c>
       <c r="B43">
+        <f>Volume!B43</f>
         <v>2.7</v>
       </c>
       <c r="C43">
+        <f>X!L43</f>
         <v>32600</v>
       </c>
       <c r="D43">
+        <f>X!B43</f>
         <v>0</v>
       </c>
       <c r="E43">
+        <f>X!C43</f>
         <v>0</v>
       </c>
       <c r="F43">
+        <f>Discord!L43</f>
         <v>0</v>
       </c>
       <c r="G43" t="e">
+        <f>Discord!B43</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H43">
+        <f>Discord!C44</f>
         <v>-0.44</v>
       </c>
       <c r="I43">
+        <f>Telegram!L43</f>
         <v>2228</v>
       </c>
       <c r="J43">
+        <f>Telegram!B43</f>
         <v>0</v>
       </c>
       <c r="K43">
+        <f>Telegram!C44</f>
         <v>-0.93</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>109</v>
+      <c r="A44" t="str">
+        <f>X!A44</f>
+        <v>CARV</v>
       </c>
       <c r="B44">
+        <f>Volume!B44</f>
         <v>-0.04</v>
       </c>
       <c r="C44">
+        <f>X!L44</f>
         <v>973600</v>
       </c>
       <c r="D44">
+        <f>X!B44</f>
         <v>0.08</v>
       </c>
       <c r="E44">
+        <f>X!C44</f>
         <v>-0.24</v>
       </c>
       <c r="F44">
+        <f>Discord!L44</f>
         <v>285119</v>
       </c>
       <c r="G44">
+        <f>Discord!B44</f>
         <v>-0.11</v>
       </c>
       <c r="H44">
+        <f>Discord!C45</f>
         <v>0.04</v>
       </c>
       <c r="I44">
+        <f>Telegram!L44</f>
         <v>30194</v>
       </c>
       <c r="J44">
+        <f>Telegram!B44</f>
         <v>-0.17</v>
       </c>
       <c r="K44">
+        <f>Telegram!C45</f>
         <v>-0.33</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>111</v>
+      <c r="A45" t="str">
+        <f>X!A45</f>
+        <v>SCRT</v>
       </c>
       <c r="B45" t="e">
+        <f>Volume!B45</f>
         <v>#VALUE!</v>
       </c>
       <c r="C45">
+        <f>X!L45</f>
         <v>186600</v>
       </c>
       <c r="D45">
+        <f>X!B45</f>
         <v>0</v>
       </c>
       <c r="E45">
+        <f>X!C45</f>
         <v>0</v>
       </c>
       <c r="F45">
+        <f>Discord!L45</f>
         <v>35772</v>
       </c>
       <c r="G45">
+        <f>Discord!B45</f>
         <v>0.04</v>
       </c>
       <c r="H45" t="e">
+        <f>Discord!C46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I45">
+        <f>Telegram!L45</f>
         <v>9039</v>
       </c>
       <c r="J45">
+        <f>Telegram!B45</f>
         <v>0.02</v>
       </c>
       <c r="K45">
+        <f>Telegram!C46</f>
         <v>0.37</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>113</v>
+      <c r="A46" t="str">
+        <f>X!A46</f>
+        <v>VITA</v>
       </c>
       <c r="B46">
+        <f>Volume!B46</f>
         <v>0</v>
       </c>
       <c r="C46">
+        <f>X!L46</f>
         <v>44400</v>
       </c>
       <c r="D46">
+        <f>X!B46</f>
         <v>0</v>
       </c>
       <c r="E46">
+        <f>X!C46</f>
         <v>0.45</v>
       </c>
       <c r="F46">
+        <f>Discord!L46</f>
         <v>0</v>
       </c>
       <c r="G46" t="e">
+        <f>Discord!B46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H46">
+        <f>Discord!C47</f>
         <v>2.4700000000000002</v>
       </c>
       <c r="I46">
+        <f>Telegram!L46</f>
         <v>1876</v>
       </c>
       <c r="J46">
+        <f>Telegram!B46</f>
         <v>-0.05</v>
       </c>
       <c r="K46">
+        <f>Telegram!C47</f>
         <v>2.06</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>115</v>
+      <c r="A47" t="str">
+        <f>X!A47</f>
+        <v>ALU</v>
       </c>
       <c r="B47" t="e">
+        <f>Volume!B47</f>
         <v>#VALUE!</v>
       </c>
       <c r="C47">
+        <f>X!L47</f>
         <v>147400</v>
       </c>
       <c r="D47">
+        <f>X!B47</f>
         <v>0.2</v>
       </c>
       <c r="E47">
+        <f>X!C47</f>
         <v>0.27</v>
       </c>
       <c r="F47">
+        <f>Discord!L47</f>
         <v>7591</v>
       </c>
       <c r="G47">
+        <f>Discord!B47</f>
         <v>0.4</v>
       </c>
       <c r="H47">
+        <f>Discord!C48</f>
         <v>0.1</v>
       </c>
       <c r="I47">
+        <f>Telegram!L47</f>
         <v>5836</v>
       </c>
       <c r="J47">
+        <f>Telegram!B47</f>
         <v>1.43</v>
       </c>
       <c r="K47">
+        <f>Telegram!C48</f>
         <v>-0.55000000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>117</v>
+      <c r="A48" t="str">
+        <f>X!A48</f>
+        <v>TOKEN</v>
       </c>
       <c r="B48">
+        <f>Volume!B48</f>
         <v>3.06</v>
       </c>
       <c r="C48">
+        <f>X!L48</f>
         <v>73200</v>
       </c>
       <c r="D48">
+        <f>X!B48</f>
         <v>-0.14000000000000001</v>
       </c>
       <c r="E48">
+        <f>X!C48</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="F48">
+        <f>Discord!L48</f>
         <v>21254</v>
       </c>
       <c r="G48">
+        <f>Discord!B48</f>
         <v>0.08</v>
       </c>
       <c r="H48" t="e">
+        <f>Discord!C49</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I48">
+        <f>Telegram!L48</f>
         <v>86667</v>
       </c>
       <c r="J48">
+        <f>Telegram!B48</f>
         <v>-0.14000000000000001</v>
       </c>
       <c r="K48">
+        <f>Telegram!C49</f>
         <v>0.24</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>119</v>
+      <c r="A49" t="str">
+        <f>X!A49</f>
+        <v>MVL</v>
       </c>
       <c r="B49">
+        <f>Volume!B49</f>
         <v>4.97</v>
       </c>
       <c r="C49">
+        <f>X!L49</f>
         <v>261000</v>
       </c>
       <c r="D49">
+        <f>X!B49</f>
         <v>0.42</v>
       </c>
       <c r="E49">
+        <f>X!C49</f>
         <v>-1.06</v>
       </c>
       <c r="F49">
+        <f>Discord!L49</f>
         <v>0</v>
       </c>
       <c r="G49" t="e">
+        <f>Discord!B49</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H49">
+        <f>Discord!C50</f>
         <v>-0.11</v>
       </c>
       <c r="I49">
+        <f>Telegram!L49</f>
         <v>6344</v>
       </c>
       <c r="J49">
+        <f>Telegram!B49</f>
         <v>0</v>
       </c>
       <c r="K49">
+        <f>Telegram!C50</f>
         <v>-0.62</v>
       </c>
     </row>
@@ -17701,33 +18454,43 @@
         <v>121</v>
       </c>
       <c r="B50">
+        <f>Volume!B50</f>
         <v>0</v>
       </c>
       <c r="C50">
+        <f>X!L50</f>
         <v>300700</v>
       </c>
       <c r="D50">
+        <f>X!B50</f>
         <v>0.43</v>
       </c>
       <c r="E50">
+        <f>X!C50</f>
         <v>2.73</v>
       </c>
       <c r="F50">
+        <f>Discord!L50</f>
         <v>8280</v>
       </c>
       <c r="G50">
+        <f>Discord!B50</f>
         <v>-0.04</v>
       </c>
       <c r="H50" t="e">
+        <f>Discord!C51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I50">
+        <f>Telegram!L50</f>
         <v>18950</v>
       </c>
       <c r="J50">
+        <f>Telegram!B50</f>
         <v>-0.08</v>
       </c>
       <c r="K50">
+        <f>Telegram!C51</f>
         <v>5.26</v>
       </c>
     </row>
@@ -17736,33 +18499,43 @@
         <v>123</v>
       </c>
       <c r="B51">
+        <f>Volume!B51</f>
         <v>0</v>
       </c>
       <c r="C51">
+        <f>X!L51</f>
         <v>21900</v>
       </c>
       <c r="D51">
+        <f>X!B51</f>
         <v>2.34</v>
       </c>
       <c r="E51">
+        <f>X!C51</f>
         <v>5.8</v>
       </c>
       <c r="F51">
+        <f>Discord!L51</f>
         <v>0</v>
       </c>
       <c r="G51" t="e">
+        <f>Discord!B51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H51" t="e">
+        <f>Discord!C52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I51">
+        <f>Telegram!L51</f>
         <v>1681</v>
       </c>
       <c r="J51">
+        <f>Telegram!B51</f>
         <v>0.48</v>
       </c>
       <c r="K51">
+        <f>Telegram!C52</f>
         <v>1.9</v>
       </c>
     </row>
@@ -17771,33 +18544,43 @@
         <v>125</v>
       </c>
       <c r="B52">
+        <f>Volume!B52</f>
         <v>0</v>
       </c>
       <c r="C52">
+        <f>X!L52</f>
         <v>22100</v>
       </c>
       <c r="D52">
+        <f>X!B52</f>
         <v>-0.9</v>
       </c>
       <c r="E52">
+        <f>X!C52</f>
         <v>-0.45</v>
       </c>
       <c r="F52">
+        <f>Discord!L52</f>
         <v>1026</v>
       </c>
       <c r="G52">
+        <f>Discord!B52</f>
         <v>1.08</v>
       </c>
       <c r="H52">
+        <f>Discord!C53</f>
         <v>0.15</v>
       </c>
       <c r="I52">
+        <f>Telegram!L52</f>
         <v>803</v>
       </c>
       <c r="J52">
+        <f>Telegram!B52</f>
         <v>0.63</v>
       </c>
       <c r="K52">
+        <f>Telegram!C53</f>
         <v>-0.39</v>
       </c>
     </row>
@@ -17806,33 +18589,43 @@
         <v>127</v>
       </c>
       <c r="B53">
+        <f>Volume!B53</f>
         <v>0</v>
       </c>
       <c r="C53">
+        <f>X!L53</f>
         <v>233100</v>
       </c>
       <c r="D53">
+        <f>X!B53</f>
         <v>0.09</v>
       </c>
       <c r="E53">
+        <f>X!C53</f>
         <v>0.09</v>
       </c>
       <c r="F53">
+        <f>Discord!L53</f>
         <v>20089</v>
       </c>
       <c r="G53">
+        <f>Discord!B53</f>
         <v>0.05</v>
       </c>
       <c r="H53">
+        <f>Discord!C54</f>
         <v>-100</v>
       </c>
       <c r="I53">
+        <f>Telegram!L53</f>
         <v>14137</v>
       </c>
       <c r="J53">
+        <f>Telegram!B53</f>
         <v>-0.09</v>
       </c>
       <c r="K53" t="e">
+        <f>Telegram!C54</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -17841,33 +18634,43 @@
         <v>129</v>
       </c>
       <c r="B54">
+        <f>Volume!B54</f>
         <v>0</v>
       </c>
       <c r="C54">
+        <f>X!L54</f>
         <v>0</v>
       </c>
       <c r="D54" t="e">
+        <f>X!B54</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E54" t="e">
+        <f>X!C54</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F54">
+        <f>Discord!L54</f>
         <v>0</v>
       </c>
       <c r="G54">
+        <f>Discord!B54</f>
         <v>-100</v>
       </c>
       <c r="H54">
+        <f>Discord!C55</f>
         <v>2.29</v>
       </c>
       <c r="I54">
+        <f>Telegram!L54</f>
         <v>0</v>
       </c>
       <c r="J54" t="e">
+        <f>Telegram!B54</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K54">
+        <f>Telegram!C55</f>
         <v>-0.38</v>
       </c>
     </row>
@@ -17876,33 +18679,268 @@
         <v>131</v>
       </c>
       <c r="B55">
+        <f>Volume!B55</f>
         <v>0</v>
       </c>
       <c r="C55">
+        <f>X!L55</f>
         <v>126800</v>
       </c>
       <c r="D55">
+        <f>X!B55</f>
         <v>0.32</v>
       </c>
       <c r="E55">
+        <f>X!C55</f>
         <v>1.04</v>
       </c>
       <c r="F55">
+        <f>Discord!L55</f>
         <v>27836</v>
       </c>
       <c r="G55">
+        <f>Discord!B55</f>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H55">
+        <f>Discord!C56</f>
         <v>0</v>
       </c>
       <c r="I55">
+        <f>Telegram!L55</f>
         <v>29589</v>
       </c>
       <c r="J55">
+        <f>Telegram!B55</f>
         <v>-0.08</v>
       </c>
       <c r="K55">
+        <f>Telegram!C56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56">
+        <f>Volume!B56</f>
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f>X!L56</f>
+        <v>176300</v>
+      </c>
+      <c r="D56">
+        <f>X!B56</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>X!C56</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>Discord!L56</f>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f>Discord!B56</f>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f>Discord!C57</f>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f>Telegram!L56</f>
+        <v>6386925</v>
+      </c>
+      <c r="J56">
+        <f>Telegram!B56</f>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f>Telegram!C57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57">
+        <f>Volume!B57</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>X!L57</f>
+        <v>97300</v>
+      </c>
+      <c r="D57">
+        <f>X!B57</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>X!C57</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>Discord!L57</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f>Discord!B57</f>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f>Discord!C58</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f>Telegram!L57</f>
+        <v>105511</v>
+      </c>
+      <c r="J57">
+        <f>Telegram!B57</f>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f>Telegram!C58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58">
+        <f>Volume!B58</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>X!L58</f>
+        <v>98400</v>
+      </c>
+      <c r="D58">
+        <f>X!B58</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>X!C58</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>Discord!L58</f>
+        <v>5668</v>
+      </c>
+      <c r="G58">
+        <f>Discord!B58</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>Discord!C59</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>Telegram!L58</f>
+        <v>852</v>
+      </c>
+      <c r="J58">
+        <f>Telegram!B58</f>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f>Telegram!C59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59">
+        <f>Volume!B59</f>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f>X!L59</f>
+        <v>54900</v>
+      </c>
+      <c r="D59">
+        <f>X!B59</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>X!C59</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>Discord!L59</f>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f>Discord!B59</f>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f>Discord!C60</f>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f>Telegram!L59</f>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f>Telegram!B59</f>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f>Telegram!C60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60">
+        <f>Volume!B60</f>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f>X!L60</f>
+        <v>364800</v>
+      </c>
+      <c r="D60">
+        <f>X!B60</f>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f>X!C60</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>Discord!L60</f>
+        <v>148639</v>
+      </c>
+      <c r="G60">
+        <f>Discord!B60</f>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f>Discord!C61</f>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f>Telegram!L60</f>
+        <v>119421</v>
+      </c>
+      <c r="J60">
+        <f>Telegram!B60</f>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f>Telegram!C61</f>
         <v>0</v>
       </c>
     </row>
